--- a/March'21/23.03.2021/Market Due.xlsx
+++ b/March'21/23.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="4" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="4" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -877,9 +877,6 @@
     <t>15.03.2021</t>
   </si>
   <si>
-    <t>Date:16.03.2021</t>
-  </si>
-  <si>
     <t>16.03.2021</t>
   </si>
   <si>
@@ -914,6 +911,9 @@
   </si>
   <si>
     <t>Rocky</t>
+  </si>
+  <si>
+    <t>Date:24.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3443,7 @@
         <v>26638</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>14007</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3585,7 +3585,7 @@
         <v>7681</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -3607,7 +3607,7 @@
         <v>2600</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -3695,7 +3695,7 @@
         <v>16025</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -3728,7 +3728,7 @@
         <v>5998</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
         <v>26638</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>14007</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4003,7 +4003,7 @@
         <v>7681</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -4025,7 +4025,7 @@
         <v>2600</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -4113,7 +4113,7 @@
         <v>16025</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4146,7 +4146,7 @@
         <v>5998</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4270,13 +4270,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>18448</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4309,7 +4309,7 @@
         <v>5410</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>10988</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
         <v>1698</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4342,7 +4342,7 @@
         <v>4532</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>5300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -4385,7 +4385,7 @@
         <v>26253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -4429,7 +4429,7 @@
         <v>26618</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -4451,7 +4451,7 @@
         <v>3100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -4495,7 +4495,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -4539,7 +4539,7 @@
         <v>17891</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4561,7 +4561,7 @@
         <v>12500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4577,7 +4577,7 @@
         <v>4000</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4698,13 +4698,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4715,7 +4715,7 @@
         <v>31900</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4726,7 +4726,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>410</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
         <v>8819</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4759,7 +4759,7 @@
         <v>1784</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>4532</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
         <v>4300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -4813,7 +4813,7 @@
         <v>4253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -4835,7 +4835,7 @@
         <v>3370</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -4857,7 +4857,7 @@
         <v>33698</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -4879,7 +4879,7 @@
         <v>3100</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -4923,7 +4923,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -4967,7 +4967,7 @@
         <v>42156</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -4989,7 +4989,7 @@
         <v>2500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5005,7 +5005,7 @@
         <v>4000</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5126,13 +5126,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5143,7 +5143,7 @@
         <v>36265</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5154,7 +5154,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>1810</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5176,7 +5176,7 @@
         <v>13663</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5187,7 +5187,7 @@
         <v>1784</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5198,7 +5198,7 @@
         <v>3932</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5220,7 +5220,7 @@
         <v>4300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -5241,7 +5241,7 @@
         <v>4253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -5263,7 +5263,7 @@
         <v>3370</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -5285,7 +5285,7 @@
         <v>15472</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -5307,7 +5307,7 @@
         <v>3600</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -5351,7 +5351,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -5373,7 +5373,7 @@
         <v>2287</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -5395,7 +5395,7 @@
         <v>16291</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -5417,7 +5417,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5433,7 +5433,7 @@
         <v>4200</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5554,13 +5554,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5571,7 +5571,7 @@
         <v>16573</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>400</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5593,7 +5593,7 @@
         <v>1810</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5604,7 +5604,7 @@
         <v>4975</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
         <v>1784</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5626,7 +5626,7 @@
         <v>3932</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5648,7 +5648,7 @@
         <v>4300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -5669,7 +5669,7 @@
         <v>4253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -5691,7 +5691,7 @@
         <v>3370</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -5713,7 +5713,7 @@
         <v>18943</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -5735,7 +5735,7 @@
         <v>9400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -5779,7 +5779,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="6">
         <v>1687</v>
@@ -5823,7 +5823,7 @@
         <v>40200</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -5845,18 +5845,18 @@
         <v>500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6">
         <v>382</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
         <v>4600</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5937,7 +5937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -5988,13 +5988,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6">
         <v>800</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6005,7 +6005,7 @@
         <v>26066</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>800</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6027,7 +6027,7 @@
         <v>1810</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6038,7 +6038,7 @@
         <v>13325</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6049,7 +6049,7 @@
         <v>1784</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6060,7 +6060,7 @@
         <v>2932</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6082,7 +6082,7 @@
         <v>4300</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
@@ -6103,7 +6103,7 @@
         <v>4253</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -6125,7 +6125,7 @@
         <v>3370</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -6147,7 +6147,7 @@
         <v>24593</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -6169,7 +6169,7 @@
         <v>4400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -6191,7 +6191,7 @@
         <v>7349</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -6213,7 +6213,7 @@
         <v>650</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="6">
         <v>1687</v>
@@ -6257,7 +6257,7 @@
         <v>19514</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -6279,29 +6279,29 @@
         <v>500</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6">
         <v>382</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="6">
         <v>1955</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>4600</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -6797,7 +6797,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>61</v>
@@ -7174,8 +7174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7188,7 +7188,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="35"/>
@@ -7215,12 +7215,12 @@
         <v>39</v>
       </c>
       <c r="B3" s="28">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28">
         <f>B3-C3</f>
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="26"/>
     </row>
@@ -7229,12 +7229,12 @@
         <v>40</v>
       </c>
       <c r="B4" s="28">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28">
         <f t="shared" ref="D4:D23" si="0">B4-C4</f>
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E4" s="26"/>
     </row>
@@ -7243,12 +7243,12 @@
         <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E5" s="26"/>
     </row>
@@ -7286,12 +7286,12 @@
         <v>44</v>
       </c>
       <c r="B8" s="28">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -7314,12 +7314,12 @@
         <v>46</v>
       </c>
       <c r="B10" s="28">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E10" s="26"/>
     </row>
@@ -7328,12 +7328,12 @@
         <v>47</v>
       </c>
       <c r="B11" s="28">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="26"/>
     </row>
@@ -7356,12 +7356,12 @@
         <v>49</v>
       </c>
       <c r="B13" s="28">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="E13" s="26"/>
     </row>
@@ -7370,12 +7370,12 @@
         <v>50</v>
       </c>
       <c r="B14" s="28">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28">
         <f t="shared" si="0"/>
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="E14" s="26"/>
     </row>
@@ -7384,12 +7384,12 @@
         <v>51</v>
       </c>
       <c r="B15" s="28">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="28">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="E15" s="26"/>
     </row>
@@ -7398,12 +7398,12 @@
         <v>52</v>
       </c>
       <c r="B16" s="28">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E16" s="26"/>
     </row>
@@ -7426,12 +7426,12 @@
         <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28">
         <f t="shared" si="0"/>
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="E18" s="26"/>
     </row>
@@ -7454,12 +7454,12 @@
         <v>56</v>
       </c>
       <c r="B20" s="28">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -7468,12 +7468,12 @@
         <v>57</v>
       </c>
       <c r="B21" s="28">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="E21" s="26"/>
     </row>
@@ -7482,12 +7482,12 @@
         <v>58</v>
       </c>
       <c r="B22" s="33">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="33">
         <f>B22-C22</f>
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -7496,12 +7496,12 @@
         <v>59</v>
       </c>
       <c r="B23" s="28">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="B24" s="29">
         <f>SUM(B3:B23)</f>
-        <v>309000</v>
+        <v>264000</v>
       </c>
       <c r="C24" s="29">
         <f>SUM(C3:C23)</f>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="D24" s="29">
         <f>SUM(D3:D23)</f>
-        <v>309000</v>
+        <v>264000</v>
       </c>
     </row>
   </sheetData>
